--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2533458-2288-40A8-B2D3-37580EB50E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF1BC86-F295-4043-BFE3-69C6289846A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,11 +459,11 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26472.5</v>
+        <v>26864.659363299601</v>
       </c>
       <c r="C4">
         <f>48236.3836-B4</f>
-        <v>21763.883600000001</v>
+        <v>21371.7242367004</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF1BC86-F295-4043-BFE3-69C6289846A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15850FB-36C0-4DAE-A577-447B5668B624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>Renewables</t>
-  </si>
-  <si>
     <t>Consumption</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Non-renewable</t>
+  </si>
+  <si>
+    <t>Renewable</t>
   </si>
 </sst>
 </file>
@@ -397,31 +397,31 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>26864.659363299601</v>

--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15850FB-36C0-4DAE-A577-447B5668B624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2ADA1C-52DB-4912-9836-E052CFBD45BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,7 +448,7 @@
       </c>
       <c r="D3">
         <f>-(SUM(B4:C4)-E2)</f>
-        <v>-13188.070157976828</v>
+        <v>-13580.229521276429</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -462,8 +462,8 @@
         <v>26864.659363299601</v>
       </c>
       <c r="C4">
-        <f>48236.3836-B4</f>
-        <v>21371.7242367004</v>
+        <f>48628.5429632996-B4</f>
+        <v>21763.883600000001</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2ADA1C-52DB-4912-9836-E052CFBD45BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F92439-E549-4608-B986-69447199D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>35048.313442023173</v>
+        <v>33884.114982141436</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
       </c>
       <c r="D3">
         <f>-(SUM(B4:C4)-E2)</f>
-        <v>-13580.229521276429</v>
+        <v>-16085.316600544866</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -459,11 +459,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26864.659363299601</v>
+        <v>30521.330641978078</v>
       </c>
       <c r="C4">
-        <f>48628.5429632996-B4</f>
-        <v>21763.883600000001</v>
+        <f>49969.4315826863-B4</f>
+        <v>19448.100940708224</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F92439-E549-4608-B986-69447199D9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5553A-B2A7-4F4B-88DE-D830B1B93064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>33884.114982141436</v>
+        <v>34115.848582686405</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
       </c>
       <c r="D3">
         <f>-(SUM(B4:C4)-E2)</f>
-        <v>-16085.316600544866</v>
+        <v>-15853.582999999897</v>
       </c>
       <c r="E3">
         <v>0</v>

--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5553A-B2A7-4F4B-88DE-D830B1B93064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A5215-0720-40BD-808E-063664C36C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,11 +459,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30521.330641978078</v>
+        <v>31798.319899999999</v>
       </c>
       <c r="C4">
         <f>49969.4315826863-B4</f>
-        <v>19448.100940708224</v>
+        <v>18171.111682686304</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A5215-0720-40BD-808E-063664C36C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC65F4-2889-431E-8DE5-3ACB08996E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
+    <workbookView xWindow="16690" yWindow="2670" windowWidth="10140" windowHeight="7550" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>34115.848582686405</v>
+        <v>34115.855000000003</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
       </c>
       <c r="D3">
         <f>-(SUM(B4:C4)-E2)</f>
-        <v>-15853.582999999897</v>
+        <v>-15853.576582686299</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -459,11 +459,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31798.319899999999</v>
+        <v>30521.3305</v>
       </c>
       <c r="C4">
         <f>49969.4315826863-B4</f>
-        <v>18171.111682686304</v>
+        <v>19448.101082686302</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Processed Data/TestConsumption.xlsx
+++ b/Processed Data/TestConsumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC65F4-2889-431E-8DE5-3ACB08996E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5F5C0-0BA1-472F-9FA7-8D022CA64085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="2670" windowWidth="10140" windowHeight="7550" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
+    <workbookView xWindow="-26250" yWindow="17925" windowWidth="19185" windowHeight="10245" xr2:uid="{F99E3A98-D5BD-4277-B23F-1B715F1FB394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -397,7 +406,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>34115.855000000003</v>
+        <v>32517.961099999902</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -448,7 +457,7 @@
       </c>
       <c r="D3">
         <f>-(SUM(B4:C4)-E2)</f>
-        <v>-15853.576582686299</v>
+        <v>-19346.709500000095</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -459,11 +468,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30521.3305</v>
+        <v>32063.23</v>
       </c>
       <c r="C4">
-        <f>49969.4315826863-B4</f>
-        <v>19448.101082686302</v>
+        <f>51864.6706-B4</f>
+        <v>19801.440599999998</v>
       </c>
       <c r="D4">
         <v>0</v>
